--- a/Documentacion/actividades.xlsx
+++ b/Documentacion/actividades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\alejo\Downloads\Downloads\Ingenieria de software\LInea de enfasis lll\Proyecto_inmoviliaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\alejo\Downloads\Downloads\Ingenieria de software\LInea de enfasis lll\Inmobiliaria_LE3_BACK\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997547BD-12DF-4B0E-BF01-09B7D5766954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2F119F-D350-4DEE-B095-6E26FAA983B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-8655" windowWidth="19440" windowHeight="15000" xr2:uid="{8982E647-5710-4DDE-9965-41CB865C6152}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8982E647-5710-4DDE-9965-41CB865C6152}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Actividad</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Responsable</t>
   </si>
   <si>
-    <t>servicio</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
     <t>2.6 - 5.1</t>
   </si>
   <si>
-    <t>servicio visitas</t>
-  </si>
-  <si>
     <t>Predecesor</t>
   </si>
   <si>
@@ -237,6 +231,42 @@
   </si>
   <si>
     <t>tipo inmueble</t>
+  </si>
+  <si>
+    <t>servicio servicio visitas</t>
+  </si>
+  <si>
+    <t>servicio servicio personas</t>
+  </si>
+  <si>
+    <t>servicio ofertas</t>
+  </si>
+  <si>
+    <t>servicio sucursales</t>
+  </si>
+  <si>
+    <t>servicio tipo inmueble</t>
+  </si>
+  <si>
+    <t>servicio tipo transacción</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>servicios</t>
   </si>
 </sst>
 </file>
@@ -651,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CCD258-5A53-48BB-922F-57EF4344D075}">
-  <dimension ref="B1:F33"/>
+  <dimension ref="B1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,13 +698,13 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -691,11 +721,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -703,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -712,10 +742,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -724,72 +754,72 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -797,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -807,158 +837,156 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -967,104 +995,164 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <v>6</v>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <v>7</v>
+      <c r="B31" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="D38" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
